--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Adam2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.375566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>17.30346300076623</v>
+        <v>15.264096263758</v>
       </c>
       <c r="R2">
-        <v>155.731167006896</v>
+        <v>137.376866373822</v>
       </c>
       <c r="S2">
-        <v>0.2249223651785973</v>
+        <v>0.1404878145075078</v>
       </c>
       <c r="T2">
-        <v>0.2476599003709697</v>
+        <v>0.1708435584343969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.375566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
         <v>18.51719775359333</v>
@@ -638,10 +638,10 @@
         <v>166.65477978234</v>
       </c>
       <c r="S3">
-        <v>0.2406993279341594</v>
+        <v>0.1704287367069571</v>
       </c>
       <c r="T3">
-        <v>0.2650317656414439</v>
+        <v>0.2072539311723684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.375566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>9.298089933803555</v>
+        <v>10.45387577088089</v>
       </c>
       <c r="R4">
-        <v>83.682809404232</v>
+        <v>94.084881937928</v>
       </c>
       <c r="S4">
-        <v>0.1208629960061633</v>
+        <v>0.09621546764423161</v>
       </c>
       <c r="T4">
-        <v>0.1330811078998542</v>
+        <v>0.1170051148307362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.375566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>21.188944920851</v>
+        <v>11.40073939575833</v>
       </c>
       <c r="R5">
-        <v>127.133669525106</v>
+        <v>68.40443637455</v>
       </c>
       <c r="S5">
-        <v>0.275428543235871</v>
+        <v>0.1049302188484368</v>
       </c>
       <c r="T5">
-        <v>0.2021811852664618</v>
+        <v>0.08506859729298898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.375566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>10.62312888692511</v>
+        <v>11.24640273886</v>
       </c>
       <c r="R6">
-        <v>95.60815998232601</v>
+        <v>101.21762464974</v>
       </c>
       <c r="S6">
-        <v>0.138086767645209</v>
+        <v>0.1035097338586033</v>
       </c>
       <c r="T6">
-        <v>0.1520460408212704</v>
+        <v>0.1258754812792402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.078181</v>
+      </c>
+      <c r="H7">
+        <v>0.156362</v>
+      </c>
+      <c r="I7">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J7">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>121.928739</v>
+      </c>
+      <c r="N7">
+        <v>365.786217</v>
+      </c>
+      <c r="O7">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P7">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q7">
+        <v>9.532510743759</v>
+      </c>
+      <c r="R7">
+        <v>57.19506446255399</v>
+      </c>
+      <c r="S7">
+        <v>0.08773540064338731</v>
+      </c>
+      <c r="T7">
+        <v>0.07112848469754762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.078181</v>
+      </c>
+      <c r="H8">
+        <v>0.156362</v>
+      </c>
+      <c r="I8">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J8">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>147.91433</v>
+      </c>
+      <c r="N8">
+        <v>443.74299</v>
+      </c>
+      <c r="O8">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P8">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q8">
+        <v>11.56409023373</v>
+      </c>
+      <c r="R8">
+        <v>69.38454140237999</v>
+      </c>
+      <c r="S8">
+        <v>0.1064336686320376</v>
+      </c>
+      <c r="T8">
+        <v>0.08628746794431304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.078181</v>
+      </c>
+      <c r="H9">
+        <v>0.156362</v>
+      </c>
+      <c r="I9">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J9">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N9">
+        <v>250.514908</v>
+      </c>
+      <c r="O9">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P9">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q9">
+        <v>6.528502007449333</v>
+      </c>
+      <c r="R9">
+        <v>39.171012044696</v>
+      </c>
+      <c r="S9">
+        <v>0.06008708037383845</v>
+      </c>
+      <c r="T9">
+        <v>0.04871355171970723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.078181</v>
+      </c>
+      <c r="H10">
+        <v>0.156362</v>
+      </c>
+      <c r="I10">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J10">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N10">
+        <v>182.136925</v>
+      </c>
+      <c r="O10">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P10">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q10">
+        <v>7.119823466712501</v>
+      </c>
+      <c r="R10">
+        <v>28.47929386685</v>
+      </c>
+      <c r="S10">
+        <v>0.06552948967523393</v>
+      </c>
+      <c r="T10">
+        <v>0.03541719966644036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.078181</v>
+      </c>
+      <c r="H11">
+        <v>0.156362</v>
+      </c>
+      <c r="I11">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J11">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N11">
+        <v>269.50689</v>
+      </c>
+      <c r="O11">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P11">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q11">
+        <v>7.02343938903</v>
+      </c>
+      <c r="R11">
+        <v>42.14063633418</v>
+      </c>
+      <c r="S11">
+        <v>0.06464238910976602</v>
+      </c>
+      <c r="T11">
+        <v>0.05240661296226111</v>
       </c>
     </row>
   </sheetData>
